--- a/ServerPC/ServerOfMultiGestureUntillDecember/result/sum(258+004).xlsx
+++ b/ServerPC/ServerOfMultiGestureUntillDecember/result/sum(258+004).xlsx
@@ -212,8 +212,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>■</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>→</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>■</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4537,8 +4553,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>■</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>←</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>■</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10066,16 +10098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>186690</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10402,8 +10434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="J26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
